--- a/data/trans_bre/P11_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 3,88</t>
+          <t>-2,58; 3,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 7,05</t>
+          <t>-0,25; 6,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 5,09</t>
+          <t>-1,21; 5,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 11,36</t>
+          <t>-1,95; 11,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-34,93; 83,1</t>
+          <t>-34,44; 74,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 168,31</t>
+          <t>-7,81; 154,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 175,85</t>
+          <t>-22,68; 176,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,56; 334,69</t>
+          <t>-22,31; 373,38</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 11,55</t>
+          <t>5,25; 11,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,6</t>
+          <t>-2,76; 3,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 5,8</t>
+          <t>-1,2; 6,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 6,1</t>
+          <t>-5,36; 6,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>64,59; 239,38</t>
+          <t>71,24; 248,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,76; 52,07</t>
+          <t>-27,41; 54,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 85,75</t>
+          <t>-11,81; 92,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,66; 51,28</t>
+          <t>-29,28; 48,57</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,67; 13,62</t>
+          <t>5,86; 13,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 10,04</t>
+          <t>2,45; 10,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 6,85</t>
+          <t>-0,34; 6,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 8,41</t>
+          <t>-0,56; 8,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>41,84; 149,96</t>
+          <t>46,61; 155,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,3; 94,86</t>
+          <t>16,28; 101,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 71,49</t>
+          <t>-2,86; 72,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 53,51</t>
+          <t>-2,8; 54,13</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,94; 16,33</t>
+          <t>5,56; 16,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,25; 17,39</t>
+          <t>8,55; 18,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 9,61</t>
+          <t>0,2; 9,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 15,94</t>
+          <t>4,74; 15,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,26; 100,82</t>
+          <t>26,59; 106,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,95; 144,82</t>
+          <t>52,36; 152,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 59,49</t>
+          <t>1,41; 58,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,05; 78,63</t>
+          <t>16,74; 75,78</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 13,96</t>
+          <t>1,07; 15,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,89; 26,23</t>
+          <t>12,85; 26,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,36; 22,57</t>
+          <t>10,15; 22,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 11,4</t>
+          <t>2,14; 11,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,16; 50,62</t>
+          <t>2,83; 54,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>42,24; 112,68</t>
+          <t>41,39; 111,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>37,16; 105,51</t>
+          <t>35,78; 104,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 32,41</t>
+          <t>4,76; 32,89</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,15; 19,58</t>
+          <t>7,83; 18,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,72; 24,9</t>
+          <t>13,9; 25,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,2; 24,74</t>
+          <t>14,58; 25,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,85; 37,74</t>
+          <t>21,48; 36,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,95; 45,19</t>
+          <t>15,09; 43,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,65; 54,28</t>
+          <t>25,44; 54,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>31,24; 63,01</t>
+          <t>32,95; 66,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>49,1; 90,3</t>
+          <t>48,1; 87,98</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,0; 13,21</t>
+          <t>8,9; 13,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,37; 14,48</t>
+          <t>10,53; 14,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,04; 12,11</t>
+          <t>8,19; 12,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,66; 18,34</t>
+          <t>9,49; 18,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>46,29; 75,37</t>
+          <t>47,02; 75,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>51,41; 80,49</t>
+          <t>53,65; 82,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>41,15; 68,72</t>
+          <t>41,85; 71,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>34,47; 73,24</t>
+          <t>33,57; 70,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P11_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 3,72</t>
+          <t>-3,15; 3,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 6,49</t>
+          <t>0,17; 6,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 5,05</t>
+          <t>-1,2; 5,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-34,44; 74,79</t>
+          <t>-39,92; 72,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 154,32</t>
+          <t>-0,18; 158,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 176,14</t>
+          <t>-25,48; 166,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,25; 11,72</t>
+          <t>5,22; 11,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 3,92</t>
+          <t>-3,05; 3,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 6,04</t>
+          <t>-1,1; 6,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>71,24; 248,32</t>
+          <t>68,95; 248,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 54,78</t>
+          <t>-31,1; 50,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 92,25</t>
+          <t>-11,82; 91,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,86; 13,72</t>
+          <t>5,8; 13,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 10,57</t>
+          <t>2,49; 10,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 6,97</t>
+          <t>-0,38; 6,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,61; 155,86</t>
+          <t>45,1; 157,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,28; 101,23</t>
+          <t>16,12; 96,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 72,66</t>
+          <t>-3,97; 72,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,56; 16,78</t>
+          <t>6,58; 17,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,55; 18,13</t>
+          <t>8,28; 17,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,2; 9,55</t>
+          <t>0,03; 9,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,59; 106,01</t>
+          <t>30,61; 107,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,36; 152,48</t>
+          <t>50,56; 150,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,41; 58,45</t>
+          <t>-0,38; 58,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 15,02</t>
+          <t>1,48; 14,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,85; 26,5</t>
+          <t>12,93; 25,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,15; 22,88</t>
+          <t>10,43; 23,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,83; 54,13</t>
+          <t>4,55; 51,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,39; 111,69</t>
+          <t>44,68; 111,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>35,78; 104,5</t>
+          <t>36,49; 106,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,83; 18,87</t>
+          <t>7,76; 19,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,9; 25,04</t>
+          <t>13,38; 25,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,58; 25,46</t>
+          <t>14,69; 25,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,09; 43,33</t>
+          <t>15,23; 45,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,44; 54,2</t>
+          <t>25,56; 55,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>32,95; 66,25</t>
+          <t>32,54; 66,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,9; 13,07</t>
+          <t>8,9; 13,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,53; 14,61</t>
+          <t>10,46; 14,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,19; 12,63</t>
+          <t>8,14; 12,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>47,02; 75,49</t>
+          <t>46,81; 76,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>53,65; 82,57</t>
+          <t>52,03; 82,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>41,85; 71,55</t>
+          <t>41,43; 69,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P11_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas</t>
+          <t>Población a la que el dolor le dificultó su trabajo habitual las últimas 4 semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 3,62</t>
+          <t>-2,57; 3,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 6,66</t>
+          <t>-0,27; 7,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 5,02</t>
+          <t>-1,05; 5,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 11,17</t>
+          <t>-0,96; 11,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-39,92; 72,28</t>
+          <t>-34,93; 83,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 158,74</t>
+          <t>-6,15; 168,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,48; 166,89</t>
+          <t>-23,2; 175,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 373,38</t>
+          <t>-16,56; 334,69</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,22; 11,64</t>
+          <t>4,83; 11,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 3,54</t>
+          <t>-2,75; 3,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 6,02</t>
+          <t>-1,32; 5,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 6,07</t>
+          <t>-5,25; 6,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>68,95; 248,77</t>
+          <t>64,59; 239,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,1; 50,14</t>
+          <t>-27,76; 52,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 91,79</t>
+          <t>-13,31; 85,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,28; 48,57</t>
+          <t>-28,66; 51,28</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 13,7</t>
+          <t>5,67; 13,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 10,04</t>
+          <t>2,65; 10,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 6,92</t>
+          <t>-0,25; 6,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 8,52</t>
+          <t>-0,41; 8,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>45,1; 157,01</t>
+          <t>41,84; 149,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,12; 96,39</t>
+          <t>18,3; 94,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 72,93</t>
+          <t>-2,93; 71,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 54,13</t>
+          <t>-1,46; 53,51</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,58; 17,11</t>
+          <t>5,94; 16,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,28; 17,59</t>
+          <t>8,25; 17,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,03; 9,68</t>
+          <t>0,32; 9,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 15,79</t>
+          <t>4,53; 15,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,61; 107,93</t>
+          <t>27,26; 100,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,56; 150,74</t>
+          <t>49,95; 144,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 58,1</t>
+          <t>0,75; 59,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,74; 75,78</t>
+          <t>17,05; 78,63</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,48; 14,25</t>
+          <t>0,89; 13,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,93; 25,76</t>
+          <t>12,89; 26,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,43; 23,2</t>
+          <t>10,36; 22,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 11,7</t>
+          <t>1,27; 11,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,55; 51,58</t>
+          <t>2,16; 50,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>44,68; 111,47</t>
+          <t>42,24; 112,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>36,49; 106,67</t>
+          <t>37,16; 105,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,76; 32,89</t>
+          <t>3,3; 32,41</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,76; 19,63</t>
+          <t>8,15; 19,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,38; 25,15</t>
+          <t>13,72; 24,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,69; 25,45</t>
+          <t>14,2; 24,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,48; 36,61</t>
+          <t>21,85; 37,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,23; 45,25</t>
+          <t>15,95; 45,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,56; 55,03</t>
+          <t>25,65; 54,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>32,54; 66,25</t>
+          <t>31,24; 63,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>48,1; 87,98</t>
+          <t>49,1; 90,3</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,9; 13,03</t>
+          <t>9,0; 13,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,46; 14,69</t>
+          <t>10,37; 14,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,14; 12,28</t>
+          <t>8,04; 12,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,49; 18,84</t>
+          <t>9,66; 18,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>46,81; 76,51</t>
+          <t>46,29; 75,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>52,03; 82,81</t>
+          <t>51,41; 80,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>41,43; 69,71</t>
+          <t>41,15; 68,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>33,57; 70,25</t>
+          <t>34,47; 73,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P11_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>79,8%</t>
+          <t>66,93%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 11,36</t>
+          <t>-1,91; 11,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,56; 334,69</t>
+          <t>-26,93; 326,73</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>-7,45%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 6,1</t>
+          <t>-7,71; 4,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,66; 51,28</t>
+          <t>-41,05; 37,99</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>22,66%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 8,41</t>
+          <t>-0,41; 8,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 53,51</t>
+          <t>-1,8; 53,72</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,02</t>
+          <t>14,57</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>40,6%</t>
+          <t>75,49%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 15,94</t>
+          <t>5,26; 27,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,05; 78,63</t>
+          <t>18,82; 284,04</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>16,91%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 11,4</t>
+          <t>1,19; 11,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 32,41</t>
+          <t>3,14; 31,47</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,8</t>
+          <t>16,79</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,52</t>
+          <t>19,11</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>20,04</t>
+          <t>21,85</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>26,81</t>
+          <t>32,26</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>29,1%</t>
+          <t>44,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>39,45%</t>
+          <t>47,37%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>48,03%</t>
+          <t>68,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>63,11%</t>
+          <t>90,33%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,15; 19,58</t>
+          <t>9,12; 24,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,72; 24,9</t>
+          <t>11,14; 27,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,2; 24,74</t>
+          <t>14,56; 29,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,85; 37,74</t>
+          <t>14,26; 53,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,95; 45,19</t>
+          <t>22,1; 76,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,65; 54,28</t>
+          <t>25,55; 82,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>31,24; 63,01</t>
+          <t>40,99; 105,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>49,1; 90,3</t>
+          <t>38,42; 167,01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11,02</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,46</t>
+          <t>16,82</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,25</t>
+          <t>14,98</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,58</t>
+          <t>27,15</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>60,61%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>66,03%</t>
+          <t>27,62%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>55,26%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>47,44%</t>
+          <t>52,77%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-1,97; 15,06</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9,1; 24,61</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7,18; 22,62</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>21,17; 32,47</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-2,81; 27,53</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13,44; 44,4</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>12,41; 45,55</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>37,99; 68,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>11,02</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12,46</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10,25</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>15,33</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>60,61%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>66,03%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>55,26%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>61,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>9,0; 13,21</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>10,37; 14,48</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>8,04; 12,11</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>9,66; 18,34</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9,82; 26,41</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>46,29; 75,37</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>51,41; 80,49</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>41,15; 68,72</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>34,47; 73,24</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>36,08; 125,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P11_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 3,88</t>
+          <t>-2,96; 3,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 7,05</t>
+          <t>-0,07; 6,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 5,09</t>
+          <t>-1,2; 5,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 11,37</t>
+          <t>-1,82; 11,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-34,93; 83,1</t>
+          <t>-35,46; 74,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 168,31</t>
+          <t>-5,24; 152,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 175,85</t>
+          <t>-24,74; 170,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,93; 326,73</t>
+          <t>-26,91; 319,05</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 11,55</t>
+          <t>4,91; 11,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,6</t>
+          <t>-2,73; 3,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 5,8</t>
+          <t>-1,04; 6,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 4,62</t>
+          <t>-8,95; 4,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>64,59; 239,38</t>
+          <t>69,4; 256,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,76; 52,07</t>
+          <t>-27,69; 55,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 85,75</t>
+          <t>-10,58; 91,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,05; 37,99</t>
+          <t>-47,78; 34,99</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,67; 13,62</t>
+          <t>5,95; 13,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 10,04</t>
+          <t>2,76; 10,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 6,85</t>
+          <t>-0,64; 7,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 8,58</t>
+          <t>-0,36; 8,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>41,84; 149,96</t>
+          <t>47,77; 153,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,3; 94,86</t>
+          <t>19,51; 100,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 71,49</t>
+          <t>-4,55; 74,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 53,72</t>
+          <t>-1,94; 50,15</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,94; 16,33</t>
+          <t>5,68; 16,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,25; 17,39</t>
+          <t>7,71; 17,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 9,61</t>
+          <t>0,15; 9,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,26; 27,56</t>
+          <t>5,97; 27,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,26; 100,82</t>
+          <t>27,36; 105,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,95; 144,82</t>
+          <t>42,46; 146,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 59,49</t>
+          <t>0,55; 55,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,82; 284,04</t>
+          <t>21,96; 342,05</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 13,96</t>
+          <t>0,84; 14,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,89; 26,23</t>
+          <t>12,62; 25,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,36; 22,57</t>
+          <t>10,69; 23,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 11,25</t>
+          <t>1,81; 11,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,16; 50,62</t>
+          <t>2,73; 53,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>42,24; 112,68</t>
+          <t>42,75; 112,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>37,16; 105,51</t>
+          <t>38,52; 108,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,14; 31,47</t>
+          <t>4,45; 32,71</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,12; 24,41</t>
+          <t>9,95; 24,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,14; 27,95</t>
+          <t>11,23; 27,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,56; 29,35</t>
+          <t>15,34; 29,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,26; 53,87</t>
+          <t>14,56; 52,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,1; 76,46</t>
+          <t>24,23; 74,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,55; 82,72</t>
+          <t>26,16; 78,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>40,99; 105,0</t>
+          <t>42,73; 106,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>38,42; 167,01</t>
+          <t>40,28; 171,56</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 15,06</t>
+          <t>-1,36; 15,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,1; 24,61</t>
+          <t>8,84; 25,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,18; 22,62</t>
+          <t>7,03; 22,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,17; 32,47</t>
+          <t>22,38; 32,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 27,53</t>
+          <t>-2,0; 28,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,44; 44,4</t>
+          <t>13,25; 45,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,41; 45,55</t>
+          <t>12,36; 45,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>37,99; 68,77</t>
+          <t>40,46; 68,23</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,0; 13,21</t>
+          <t>8,95; 13,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,37; 14,48</t>
+          <t>10,29; 14,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,04; 12,11</t>
+          <t>8,33; 12,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,82; 26,41</t>
+          <t>9,95; 25,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>46,29; 75,37</t>
+          <t>46,65; 76,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>51,41; 80,49</t>
+          <t>51,66; 81,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>41,15; 68,72</t>
+          <t>42,65; 70,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>36,08; 125,41</t>
+          <t>37,78; 118,44</t>
         </is>
       </c>
     </row>
